--- a/doc/10 众包/02 任务单/20151019-01.xlsx
+++ b/doc/10 众包/02 任务单/20151019-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>20151019-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +186,47 @@
         <charset val="134"/>
       </rPr>
       <t>如果导入的商品的计量单位不存在，则需要自动创建商品计量单位</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>PHPExcel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，这个在目前的代码中已经有了，位于：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>git\PSI\web\Application\Home\Common\Excel</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -554,7 +595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C8"/>
+  <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,6 +657,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="9" spans="2:3" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
